--- a/Book.xlsx
+++ b/Book.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>name</t>
   </si>
@@ -91,9 +88,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,6 +108,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -119,13 +123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -135,7 +132,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,8 +146,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +185,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -172,6 +215,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -182,36 +232,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -219,32 +239,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,13 +260,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,79 +404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,78 +435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,8 +466,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,22 +476,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,25 +512,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,147 +536,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,133 +1018,100 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
